--- a/Data/api_test_case.xlsx
+++ b/Data/api_test_case.xlsx
@@ -2216,7 +2216,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
